--- a/biology/Botanique/Cardiopteridaceae/Cardiopteridaceae.xlsx
+++ b/biology/Botanique/Cardiopteridaceae/Cardiopteridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cardioptéridacées (ou Leptaulaceae van Tieghem, 1900[1]) regroupe des plantes dicotylédones. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cardioptéridacées (ou Leptaulaceae van Tieghem, 1900) regroupe des plantes dicotylédones. 
 Classiquement elle comprend trois espèces appartenant au genre Cardiopteris (en). Ce sont des plantes herbacées rampantes, à latex, des régions tempérées à subtropicales de l'hémisphère sud, originaires d'Asie du Sud-Est et d'Australie.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Cardiopteris issu du grec καρδιά / kardia, cœur, et πτέρης / pteris, aile, fougère.
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] la place dans les familles de position incertaine.
-La classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] assignent cette famille à l'ordre Aquifoliales. Le Angiosperm Phylogeny Website augmente la famille à 5, 6 ou 7 genres dont Citronella.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) la place dans les familles de position incertaine.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) assignent cette famille à l'ordre Aquifoliales. Le Angiosperm Phylogeny Website augmente la famille à 5, 6 ou 7 genres dont Citronella.
 </t>
         </is>
       </c>
@@ -575,27 +591,29 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015) :
 Cardiopteris (en) Wall. ex Royle (1834)
 Citronella (en) D.Don (1832)
 Dendrobangia (en) Rusby (1896)
 Gonocaryum (en) Miq., Fl. Ned. Ind. (1861)
 Leptaulus (en) Benth. (1862)[note 1]
 Pseudobotrys (en) Moeser (1912)
-Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[6] :
+Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Cardiopteris Wall. ex Royle
 Citronella D.Don
 Gonocaryum Miq.
 Leptaulus Bentham
 Pseudobotrys Moeser
-Selon NCBI  (12 nov. 2015)[7] :
+Selon NCBI  (12 nov. 2015) :
 Cardiopteris
 Citronella
 Gonocaryum
 Leptaulus
-Selon DELTA Angio           (12 nov. 2015)[8] :
+Selon DELTA Angio           (12 nov. 2015) :
 Cardiopteris
 Leptaulus
 Peripterygium : synonyme de Cardiopteris Wall. ex Royle</t>
@@ -626,9 +644,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (9 Jul 2010)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (9 Jul 2010) :
 genre Cardiopteris Wall. ex Royle (1834)
 Cardiopteris moluccana Blume (1847)
 Cardiopteris quinqueloba (Hassk.) Hassk. (1855)
@@ -681,7 +701,7 @@
 genre Pseudobotrys Moeser (1912)
 Pseudobotrys cauliflora (Pulle) Sleumer (1940)
 Pseudobotrys dorae Moeser (1912)
-Selon NCBI  (9 Jul 2010)[10] :
+Selon NCBI  (9 Jul 2010) :
 genre Cardiopteris
 Cardiopteris platycarpa
 Cardiopteris quinqueloba
